--- a/03 Products & Pricing/08 FRAs/FRAs.xlsx
+++ b/03 Products & Pricing/08 FRAs/FRAs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\BOOK\.SWAPS_BOOK\03 Products &amp; Pricing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\BOOK\.SWAPS_BOOK\03 Products &amp; Pricing\08 FRAs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AFFFED-A8E6-42F3-BCB8-0084CF15BD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3629CB7E-D34C-4A6C-A0D2-96B7C18D4D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25739176-8D93-4B8D-A4B5-B1CE389BD96E}"/>
+    <workbookView xWindow="5415" yWindow="1815" windowWidth="38700" windowHeight="18945" activeTab="4" xr2:uid="{25739176-8D93-4B8D-A4B5-B1CE389BD96E}"/>
   </bookViews>
   <sheets>
     <sheet name="FRA Quotes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="FRA_Rate">Payoff!$C$5</definedName>
     <definedName name="Notional">Payoff!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>Contract</t>
   </si>
@@ -137,21 +137,6 @@
     <t>Martingale Process</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">FRA Contract Period, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>τ</t>
-    </r>
-  </si>
-  <si>
     <t>FRA Timeline (LIBOR)</t>
   </si>
   <si>
@@ -229,6 +214,37 @@
   <si>
     <t>Contract Period</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FRA Contract Period, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FRA Contract Period, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>τ</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -238,7 +254,7 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,19 +318,55 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -343,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -433,9 +485,29 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
-        <color theme="4"/>
+      <right style="thick">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -443,8 +515,21 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -454,7 +539,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color rgb="FFFF0000"/>
       </right>
       <top/>
@@ -462,9 +547,20 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
+      <right style="thick">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -477,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -506,17 +602,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -554,16 +645,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,7 +701,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -599,7 +719,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -612,14 +732,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="2400" b="0"/>
               <a:t>Payer</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="2400" b="0" baseline="0"/>
               <a:t> FRA Payoff</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" sz="2400" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -627,8 +747,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35946522309711287"/>
-          <c:y val="0.18055555555555552"/>
+          <c:x val="0.35773724224749137"/>
+          <c:y val="0.16499739880876058"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -644,7 +764,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -838,8 +958,8 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr algn="r">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -852,7 +972,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1600"/>
                   <a:t>Reference Rate</a:t>
                 </a:r>
               </a:p>
@@ -862,8 +982,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41598140857392829"/>
-              <c:y val="0.82775444736074655"/>
+              <c:x val="0.78923169111552205"/>
+              <c:y val="0.57623103315069191"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -878,8 +998,8 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pPr algn="r">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -917,7 +1037,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -959,7 +1079,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -972,7 +1092,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1600"/>
                   <a:t>Payoff</a:t>
                 </a:r>
               </a:p>
@@ -991,7 +1111,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1029,7 +1149,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1096,7 +1216,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1114,7 +1234,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1127,14 +1247,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="2400"/>
               <a:t>Receiver</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="2400" baseline="0"/>
               <a:t> FRA Payoff</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1142,8 +1262,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39686789151356083"/>
-          <c:y val="0.16666666666666666"/>
+          <c:x val="0.35522285729588327"/>
+          <c:y val="0.1510171833825853"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1159,7 +1279,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1354,7 +1474,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1367,14 +1487,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1600"/>
                   <a:t>Reference</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1600" baseline="0"/>
                   <a:t> Rate</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1382,8 +1502,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41837029746281718"/>
-              <c:y val="0.79997666958296876"/>
+              <c:x val="0.78796944013337311"/>
+              <c:y val="0.57566785872203152"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1399,7 +1519,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1437,7 +1557,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1479,7 +1599,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1492,7 +1612,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1600"/>
                   <a:t>Payoff</a:t>
                 </a:r>
               </a:p>
@@ -1511,7 +1631,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1549,7 +1669,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4373,15 +4493,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>594358</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>7619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4408,16 +4528,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5713</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>17144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4746,20 +4866,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF093D6-E372-413F-BAB0-B4C68DA83186}">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="14.77734375" customWidth="1"/>
+    <col min="2" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4773,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -4787,7 +4907,7 @@
         <v>2.9199999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
@@ -4801,7 +4921,7 @@
         <v>3.5699999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -4818,7 +4938,7 @@
         <v>3.7133333333333332E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -4835,7 +4955,7 @@
         <v>3.8566666666666662E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -4849,7 +4969,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -4866,7 +4986,7 @@
         <v>4.15E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -4883,7 +5003,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
@@ -4898,7 +5018,7 @@
         <v>4.45E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -4915,7 +5035,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -4932,7 +5052,7 @@
         <v>4.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
@@ -4946,10 +5066,10 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
     </row>
   </sheetData>
@@ -4961,16 +5081,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61F4269-E93A-4584-AAD1-357C523D300F}">
   <dimension ref="B2:O31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
@@ -4986,135 +5108,132 @@
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C18" s="11"/>
       <c r="G18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="33" t="s">
+    <row r="19" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="33" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33" t="s">
+      <c r="G19" s="29"/>
+      <c r="H19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="33" t="s">
+      <c r="I19" s="29"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="33"/>
-    </row>
-    <row r="20" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="33" t="s">
+      <c r="O19" s="29"/>
+    </row>
+    <row r="20" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="34" t="s">
+      <c r="I20" s="29"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="34"/>
-    </row>
-    <row r="21" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-    </row>
-    <row r="22" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-    </row>
-    <row r="23" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="2:15" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="13" t="s">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>23</v>
       </c>
@@ -5123,11 +5242,11 @@
   <mergeCells count="7">
     <mergeCell ref="J23:M23"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="H19:I19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5138,181 +5257,186 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13B454F-C700-477D-A2FA-C96F21DC21A8}">
   <dimension ref="B2:S32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
+    <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="46"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="20"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="33" t="s">
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="40"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="47"/>
+      <c r="C18" s="41"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="41"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="41"/>
+    </row>
+    <row r="19" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="B19" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="35" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="35" t="s">
+      <c r="M19" s="37"/>
+      <c r="N19" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="33" t="s">
+      <c r="O19" s="35"/>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="35"/>
+      <c r="P20" s="33"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+    </row>
+    <row r="21" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+    </row>
+    <row r="22" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+    </row>
+    <row r="23" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="35"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="33"/>
-    </row>
-    <row r="20" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="N20" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-    </row>
-    <row r="21" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-    </row>
-    <row r="22" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-    </row>
-    <row r="23" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="L19:M19"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5325,124 +5449,124 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="15"/>
-    <col min="3" max="3" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="15"/>
-    <col min="6" max="6" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="2" width="8.85546875" style="14"/>
+    <col min="3" max="3" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="14"/>
+    <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="19">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="24">
-        <v>10000000</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="C18" s="17">
+        <v>6.5500000000000003E-3</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="24">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="F18" s="17">
+        <v>6.5500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="22">
-        <v>6.5500000000000003E-3</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="C19" s="27">
+        <v>7.0499999999999998E-3</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="22">
-        <v>6.5500000000000003E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
+      <c r="F19" s="27">
+        <v>7.5500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="32">
-        <v>7.0499999999999998E-3</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="C20" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="32">
-        <v>7.5500000000000003E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
+      <c r="F20" s="15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="23">
+      <c r="C21" s="18">
         <v>0.99</v>
       </c>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="31">
+      <c r="F21" s="18"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="26">
         <f>C16*C17*(C18-C19)*C20*C21</f>
         <v>1237.4999999999989</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="31">
+      <c r="E23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="26">
         <f>F16*F17*(F18-F19)*F20</f>
         <v>2500</v>
       </c>
@@ -5457,213 +5581,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0972B48A-49AE-4FCD-9572-3E8CE03219E5}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="23">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C5" s="20">
+        <v>6.5500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="28">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C6" s="22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="25">
-        <v>6.5500000000000003E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="27">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="25">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="29" t="s">
+      <c r="D9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="25">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
         <f>B11-df</f>
         <v>1.5500000000000002E-3</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="23">
         <f t="shared" ref="C10:C20" si="0">-1*Notional*(FRA_Rate-$B10)*Contract_Period</f>
         <v>-12500</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="23">
         <f t="shared" ref="D10:D20" si="1">Notional*(FRA_Rate-$B10)*Contract_Period</f>
         <v>12500</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
         <f>B12-df</f>
         <v>2.5500000000000002E-3</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="23">
         <f t="shared" si="0"/>
         <v>-10000</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="23">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
         <f>B13-df</f>
         <v>3.5500000000000002E-3</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="23">
         <f t="shared" si="0"/>
         <v>-7500</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="23">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
         <f>B14-df</f>
         <v>4.5500000000000002E-3</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="23">
         <f t="shared" si="0"/>
         <v>-5000</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="23">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
         <f>B15-df</f>
         <v>5.5500000000000002E-3</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="23">
         <f t="shared" si="0"/>
         <v>-2500</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="23">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="26">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="21">
         <f>FRA_Rate</f>
         <v>6.5500000000000003E-3</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
         <f>B15+df</f>
         <v>7.5500000000000003E-3</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="23">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="23">
         <f t="shared" si="1"/>
         <v>-2500</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="20">
         <f>B16+df</f>
         <v>8.5500000000000003E-3</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="23">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="23">
         <f t="shared" si="1"/>
         <v>-5000</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
         <f>B17+df</f>
         <v>9.5499999999999995E-3</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="23">
         <f t="shared" si="0"/>
         <v>7499.9999999999982</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="23">
         <f t="shared" si="1"/>
         <v>-7499.9999999999982</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="20">
         <f>B18+df</f>
         <v>1.055E-2</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="23">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="23">
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
         <f>B19+df</f>
         <v>1.1550000000000001E-2</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="23">
         <f t="shared" si="0"/>
         <v>12500.000000000002</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="23">
         <f t="shared" si="1"/>
         <v>-12500.000000000002</v>
       </c>
